--- a/InputForm/challenge (1).xlsx
+++ b/InputForm/challenge (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>First Name</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>kipling@waterfront.com</t>
-  </si>
-  <si>
-    <t>mrobertson@mc.com</t>
   </si>
   <si>
     <t>dderrick@timepath.co.uk</t>
@@ -611,7 +608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -621,12 +618,12 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="25" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,9 +731,7 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4">
         <v>40733652145</v>
       </c>
@@ -758,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="4">
         <v>40799885412</v>
@@ -781,7 +776,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="4">
         <v>40733154268</v>
@@ -804,7 +799,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4">
         <v>40712462257</v>
@@ -827,7 +822,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4">
         <v>40731254562</v>
@@ -850,7 +845,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4">
         <v>40741785214</v>
@@ -873,7 +868,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="4">
         <v>40731653845</v>
